--- a/0. Business Plan (Bus Entrep)/profitlossFINAL.xlsx
+++ b/0. Business Plan (Bus Entrep)/profitlossFINAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Desktop\AAA-ProjectDocs\AudioAcousticAssistan-AAA\0. Business Plan (Bus Entrep)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L Statement" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
     <t>Other expenses (Misc)</t>
   </si>
   <si>
-    <t>Audiotronics</t>
-  </si>
-  <si>
     <t>For the Janurary, 1st, 2017 To the December, 31st, 2017</t>
+  </si>
+  <si>
+    <t>AudioAcousticAssistant</t>
   </si>
 </sst>
 </file>
@@ -910,8 +910,8 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="15"/>
